--- a/config/project/reliability_120KW_anbat/reliabilityConfig.xlsx
+++ b/config/project/reliability_120KW_anbat/reliabilityConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\reliability_120KW_anbat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EFC8EDDA-0218-4108-8081-1A6606874416}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -1059,7 +1060,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1907,24 +1908,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -1932,8 +1933,8 @@
     <cellStyle name="标题 4" xfId="23" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="24" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="25"/>
-    <cellStyle name="常规 3" xfId="43"/>
+    <cellStyle name="常规 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="好" xfId="26" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="27" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="28" builtinId="22" customBuiltin="1"/>
@@ -1941,12 +1942,12 @@
     <cellStyle name="解释性文本" xfId="30" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="31" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="32" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="33"/>
-    <cellStyle name="强调文字颜色 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 3" xfId="35"/>
-    <cellStyle name="强调文字颜色 4" xfId="36"/>
-    <cellStyle name="强调文字颜色 5" xfId="37"/>
-    <cellStyle name="强调文字颜色 6" xfId="38"/>
+    <cellStyle name="强调文字颜色 1" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="适中" xfId="39" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="40" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="41" builtinId="20" customBuiltin="1"/>
@@ -2261,7 +2262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
@@ -2588,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3025,7 +3026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3270,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3865,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -4908,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/config/project/reliability_120KW_anbat/reliabilityConfig.xlsx
+++ b/config/project/reliability_120KW_anbat/reliabilityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\reliability_120KW_anbat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EFC8EDDA-0218-4108-8081-1A6606874416}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B78A48C3-7224-4B0B-A998-0E1B1EA3FB5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -2265,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3274,8 +3274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
